--- a/ANALYSIS/data/raw/timing.xlsx
+++ b/ANALYSIS/data/raw/timing.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\AMR\ANALYSIS\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694EE5B-50D5-4EEA-A69E-546CE7F726D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="timing" sheetId="1" r:id="rId4"/>
+    <sheet name="timing" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>event</t>
   </si>
@@ -25,63 +31,21 @@
     <t>end</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Presentazione proposta</t>
   </si>
   <si>
-    <t>Approvazione proposta da parte del CS IZSLER</t>
-  </si>
-  <si>
-    <t>Approvazione Ministero e Inizio Progetto</t>
-  </si>
-  <si>
-    <t>U.O.1</t>
-  </si>
-  <si>
-    <t>Inizio attività borsa di studio U.O.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attività di raccolta campioni di feci  </t>
   </si>
   <si>
-    <t>U.O. 3</t>
-  </si>
-  <si>
-    <t>U.O. 4</t>
-  </si>
-  <si>
-    <t>U.O. 5</t>
-  </si>
-  <si>
-    <t>U.O. 6</t>
-  </si>
-  <si>
-    <t>Analisi fenotipiche</t>
-  </si>
-  <si>
     <t>Invio Relazione Parziale</t>
   </si>
   <si>
-    <t>U.O.2</t>
-  </si>
-  <si>
     <t>Analisi metagenomica su pool di E.coli</t>
   </si>
   <si>
-    <t xml:space="preserve">Analisi statistica dati  dei profili fenotipici </t>
-  </si>
-  <si>
-    <t>U.O.3</t>
-  </si>
-  <si>
     <t>Analisi genoma ceppi E.coli resistenti a Ceftiofur</t>
   </si>
   <si>
-    <t>U.0.3</t>
-  </si>
-  <si>
     <t>Analisi dati metagenomici</t>
   </si>
   <si>
@@ -92,29 +56,39 @@
   </si>
   <si>
     <t>Sospensione per emergenza COVID-19</t>
+  </si>
+  <si>
+    <t>Approvazione CS IZSLER</t>
+  </si>
+  <si>
+    <t>Approvazione MS e Inizio Progetto</t>
+  </si>
+  <si>
+    <t>Inizio attività borsa di studio</t>
+  </si>
+  <si>
+    <t>Analisi  microbiologiche isolamento, identificazione e test di suscettibilità</t>
+  </si>
+  <si>
+    <t>Analisi statistica dati  dei profili fenotipici di resistenza</t>
+  </si>
+  <si>
+    <t>Elaborazione dati genoma ceppi E.coli resistenti a Ceftiofur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvazione richiesta proroga durata progetto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -138,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,97 +135,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Tema di Office">
       <a:dk1>
@@ -453,7 +432,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -472,7 +451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,9 +702,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -742,7 +727,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -761,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,9 +993,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1024,7 +1015,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1043,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,324 +1285,229 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8516" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B2" s="3">
+        <v>42629</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42657</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43084</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B6" s="3">
+        <v>42948</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>42629</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="2">
+      <c r="B8" s="3">
+        <v>43498</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
-        <v>42657</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="2">
+      <c r="B9" s="3">
+        <v>43497</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43762</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>43084</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="B11" s="3">
+        <v>43738</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43973</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B14" s="3">
+        <v>43981</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
-        <v>43132</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43497</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="B15" s="3">
+        <v>43951</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="B16" s="3">
+        <v>44151</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42979</v>
-      </c>
-      <c r="D11" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43313</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43465</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43498</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>43497</v>
-      </c>
-      <c r="D14" s="4">
-        <v>43889</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4">
-        <v>43466</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43981</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4">
-        <v>43497</v>
-      </c>
-      <c r="D16" s="4">
-        <v>43981</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4">
-        <v>43981</v>
-      </c>
-      <c r="D17" s="4">
-        <v>44119</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>43951</v>
-      </c>
-      <c r="D18" s="4">
-        <v>44134</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>44151</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B17" s="3">
         <v>43901</v>
       </c>
-      <c r="D20" s="4">
+      <c r="C17" s="3">
         <v>43983</v>
       </c>
-      <c r="E20" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/ANALYSIS/data/raw/timing.xlsx
+++ b/ANALYSIS/data/raw/timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\AMR\ANALYSIS\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694EE5B-50D5-4EEA-A69E-546CE7F726D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76103538-B26E-40E1-A5BC-C91614EE2526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,19 +64,19 @@
     <t>Approvazione MS e Inizio Progetto</t>
   </si>
   <si>
+    <t>Analisi  microbiologiche isolamento, identificazione e test di suscettibilità</t>
+  </si>
+  <si>
+    <t>Analisi statistica dati  dei profili fenotipici di resistenza</t>
+  </si>
+  <si>
+    <t>Elaborazione dati genoma ceppi E.coli resistenti a Ceftiofur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvazione richiesta proroga durata progetto </t>
+  </si>
+  <si>
     <t>Inizio attività borsa di studio</t>
-  </si>
-  <si>
-    <t>Analisi  microbiologiche isolamento, identificazione e test di suscettibilità</t>
-  </si>
-  <si>
-    <t>Analisi statistica dati  dei profili fenotipici di resistenza</t>
-  </si>
-  <si>
-    <t>Elaborazione dati genoma ceppi E.coli resistenti a Ceftiofur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approvazione richiesta proroga durata progetto </t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>42629</v>
       </c>
       <c r="C2" s="3">
-        <v>42630</v>
+        <v>42638</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>42657</v>
       </c>
       <c r="C3" s="3">
-        <v>42658</v>
+        <v>42666</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1359,12 +1359,12 @@
         <v>43084</v>
       </c>
       <c r="C4" s="3">
-        <v>43085</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>43132</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>42979</v>
@@ -1403,7 +1403,7 @@
         <v>43498</v>
       </c>
       <c r="C8" s="3">
-        <v>43499</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,13 +1419,13 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>43762</v>
       </c>
       <c r="C10" s="3">
-        <v>43763</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>43973</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>43466</v>
@@ -1491,7 +1491,7 @@
         <v>44151</v>
       </c>
       <c r="C16" s="3">
-        <v>44152</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
